--- a/biology/Botanique/Bosquet_des_enfants/Bosquet_des_enfants.xlsx
+++ b/biology/Botanique/Bosquet_des_enfants/Bosquet_des_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet des enfants (en finnois : Lastenlehto) est un parc du quartier de Kamppi au centre d’Helsinki en Finlande. 
 </t>
@@ -511,12 +523,14 @@
           <t>Le parc</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le triangle délimité par les rues Lapinlahdenkatu, Lapinrinne et Ruoholahdenkatu.
-Avec une superficie de 19 500 m2, le parc pour enfants est le plus grand parc de Kamppi[1].
+Avec une superficie de 19 500 m2, le parc pour enfants est le plus grand parc de Kamppi.
 Comme de nombreux autres parcs triangulaires du centre-ville d'Helsinki, dont le parc de Lapinlahti voisin, le bosquet des enfants est situé à l'intersection de deux zones de plans hippodamiens divergents.
-Le nom du parc est dû à l'orphelinat de l'association caritative qui était autrefois situé à proximité[2].
+Le nom du parc est dû à l'orphelinat de l'association caritative qui était autrefois situé à proximité.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Statue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le parc se trouve une copie en bronze de la sculpture Arcum tendit Apollo[3] sculptée par Emil Cedercreutz et érigée en 2001, qu'il a conçue en mémoire d'Aleksis Kivi et qui a participé à un concours commémoratif dans les années 1920.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le parc se trouve une copie en bronze de la sculpture Arcum tendit Apollo sculptée par Emil Cedercreutz et érigée en 2001, qu'il a conçue en mémoire d'Aleksis Kivi et qui a participé à un concours commémoratif dans les années 1920.
 La sculpture originale en plâtre est conservé au musée Emil Cedercreutz à Harjavalta.
 </t>
         </is>
